--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-003 until SCD0026-007 - Abnormal View agenda pada Mobile.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-003 until SCD0026-007 - Abnormal View agenda pada Mobile.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A672E-5D73-48AC-8F70-5A52F7FA239E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474652A0-BC01-4C63-B9BC-3F2D606AEF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0338" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0026" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,9 +80,6 @@
     <t>Daily Activity</t>
   </si>
   <si>
-    <t>SCD0338-003</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Login menggunakan username &amp; password</t>
   </si>
   <si>
@@ -92,28 +89,31 @@
     <t>Pemimpin Cabang</t>
   </si>
   <si>
-    <t>SCD0338-004</t>
-  </si>
-  <si>
     <t>Pemimpin Wilayah</t>
   </si>
   <si>
-    <t>SCD0338-005</t>
-  </si>
-  <si>
     <t>Supervisor</t>
   </si>
   <si>
-    <t>SCD0338-006</t>
-  </si>
-  <si>
     <t>Admin SLN</t>
   </si>
   <si>
-    <t>SCD0338-007</t>
-  </si>
-  <si>
     <t>Admin WEM</t>
+  </si>
+  <si>
+    <t>SCD0026-003</t>
+  </si>
+  <si>
+    <t>SCD0026-004</t>
+  </si>
+  <si>
+    <t>SCD0026-005</t>
+  </si>
+  <si>
+    <t>SCD0026-006</t>
+  </si>
+  <si>
+    <t>SCD0026-007</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,16 +577,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="6">
         <v>18718</v>
@@ -595,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>12</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="6">
         <v>26482</v>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>12</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="6">
         <v>32281</v>
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>12</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="6">
         <v>52326</v>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>12</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="6">
         <v>37679</v>
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
